--- a/参考文档/翻译对照表.xlsx
+++ b/参考文档/翻译对照表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitBin\private-file-storage\game\battleTech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitBin\RogueTech\参考文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A54C64-5C32-4E89-B5DD-AA3DCCCC3A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326278A1-9CA9-4C2A-99D6-B0F28A384AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>comStar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
   </si>
   <si>
     <t>House Liao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库里塔家族</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -169,6 +165,14 @@
   <si>
     <t>{0}! 遭受{1}严重伤害!</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖家族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栗田家族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -515,7 +519,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,7 +557,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -566,18 +570,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -592,77 +596,80 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
